--- a/docs/report/final report charts and data.xlsx
+++ b/docs/report/final report charts and data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Computer Science Masters\Parallel and Distributed Programming\Project\COP5522ProjectTeamGold\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE960BB-1BF5-4DE7-B86B-DACB49E6ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2B540-623C-4AD9-85D5-9FDDCC3ABA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="6255" windowWidth="13200" windowHeight="10020" xr2:uid="{3F61701A-A76B-451E-8929-39C440F1D5C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3F61701A-A76B-451E-8929-39C440F1D5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>phase (degrees)</t>
   </si>
@@ -92,6 +82,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>ideal</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2321,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" baseline="0">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
@@ -2455,7 +2448,94 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-167D-4ED4-BA6C-4B4D52A54CFD}"/>
+              <c16:uniqueId val="{00000000-70CB-4A5D-873A-0EF689DE0F99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$93:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$93:$C$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70CB-4A5D-873A-0EF689DE0F99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2467,13 +2547,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83003600"/>
-        <c:axId val="83001936"/>
+        <c:axId val="205018448"/>
+        <c:axId val="205016784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83003600"/>
+        <c:axId val="205018448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2578,22 +2660,24 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83001936"/>
+        <c:crossAx val="205016784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83001936"/>
+        <c:axId val="205016784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2698,15 +2782,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83003600"/>
+        <c:crossAx val="205018448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2718,6 +2802,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2916,7 +3031,94 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DABF-4546-938A-2DDE374E723D}"/>
+              <c16:uniqueId val="{00000000-C6BB-4E16-9460-87BB905FCE88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$110:$A$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$110:$C$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6BB-4E16-9460-87BB905FCE88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2928,13 +3130,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492277056"/>
-        <c:axId val="492264160"/>
+        <c:axId val="673752240"/>
+        <c:axId val="673758064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492277056"/>
+        <c:axId val="673752240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3039,22 +3243,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492264160"/>
+        <c:crossAx val="673758064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492264160"/>
+        <c:axId val="673758064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3159,15 +3364,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492277056"/>
+        <c:crossAx val="673752240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3179,6 +3384,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7227,23 +7463,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>947737</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9130AB0F-F451-7BA9-E6E0-5C45AF2A49E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968BBA5D-4B74-E703-4F05-AC4003C16FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7263,23 +7499,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>890587</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904B9277-4D16-91D0-AC9D-DD60F073540E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D64C0F8-E1E7-939A-6045-C0465296B8B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7688,7 +7924,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8265,7 +8501,7 @@
         <v>65.399600000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -8273,86 +8509,116 @@
         <v>37.479599999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C92" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>1</v>
       </c>
       <c r="B93" s="5">
         <v>1</v>
       </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>2</v>
       </c>
       <c r="B94" s="5">
         <v>1.5669</v>
       </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>4</v>
       </c>
       <c r="B95" s="5">
         <v>2.1579999999999999</v>
       </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>8</v>
       </c>
       <c r="B96" s="5">
         <v>3.7656000000000001</v>
       </c>
+      <c r="C96" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C109" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>1</v>
       </c>
       <c r="B110" s="5">
         <v>1</v>
       </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>2</v>
       </c>
       <c r="B111" s="5">
         <v>0.78349999999999997</v>
       </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>4</v>
       </c>
       <c r="B112" s="5">
         <v>0.53949999999999998</v>
       </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>8</v>
       </c>
       <c r="B113" s="5">
         <v>0.47099999999999997</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
